--- a/tests/indicators/m-r/Rsi/Rsi.Calc.xlsx
+++ b/tests/indicators/m-r/Rsi/Rsi.Calc.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Rsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\tests\indicators\m-r\Rsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D40BB1-AFFC-4034-B3F4-C1C9F4D2C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BEB3B0-22ED-44F7-B99C-E4088C9ABE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21585" yWindow="360" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10133" iterateDelta="2.0000000000000002E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,9 +48,6 @@
     <t>close</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>Gain</t>
   </si>
   <si>
@@ -58,6 +65,9 @@
   <si>
     <t>RSI(14)</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +77,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -574,8 +584,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -643,6 +653,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -700,107 +811,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -903,24 +913,24 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{CE4FCB39-4D21-49F8-A808-9A25A00E1891}" name="Gain" dataDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{CE4FCB39-4D21-49F8-A808-9A25A00E1891}" name="Gain" dataDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(testdata[[#This Row],[close]]&gt;F1,testdata[[#This Row],[close]]-F1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E3EAFBFA-DDB3-4717-8C3E-3D515022801A}" name="Loss" dataDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="17" xr3:uid="{E3EAFBFA-DDB3-4717-8C3E-3D515022801A}" name="Loss" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>if</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{E61C978C-120D-4F63-9BFB-C33C153E2F6B}" name="AvgGain" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="19" xr3:uid="{59812A85-C982-456E-89A4-2E669E2124B4}" name="AvgLoss" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="20" xr3:uid="{92BE8F75-3151-4820-A400-2FE5EBFF6B89}" name="RS" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="18" xr3:uid="{E61C978C-120D-4F63-9BFB-C33C153E2F6B}" name="AvgGain" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="19" xr3:uid="{59812A85-C982-456E-89A4-2E669E2124B4}" name="AvgLoss" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="20" xr3:uid="{92BE8F75-3151-4820-A400-2FE5EBFF6B89}" name="RS" dataDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>testdata[[#This Row],[AvgGain]]/testdata[[#This Row],[AvgLoss]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{92C41608-7843-42C0-AB3C-387DE69B4A01}" name="RSI(14)" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="21" xr3:uid="{92C41608-7843-42C0-AB3C-387DE69B4A01}" name="RSI(14)" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>100-(100/(1+testdata[[#This Row],[RS]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1233,7 +1243,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
@@ -1246,7 +1256,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1264,22 +1274,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="O1"/>
       <c r="P1"/>
@@ -1289,7 +1299,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -1320,7 +1330,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -1357,7 +1367,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -1394,7 +1404,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -1431,7 +1441,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -1468,7 +1478,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -1505,7 +1515,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -1542,7 +1552,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -1579,7 +1589,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -1616,7 +1626,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -1653,7 +1663,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -1690,7 +1700,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -1727,7 +1737,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -1764,7 +1774,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -1801,7 +1811,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -1850,7 +1860,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -1899,7 +1909,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -1948,7 +1958,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -1997,7 +2007,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -2046,7 +2056,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -2095,7 +2105,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -2144,7 +2154,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -2193,7 +2203,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -2242,7 +2252,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -2291,7 +2301,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -2340,7 +2350,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -2389,7 +2399,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -2438,7 +2448,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -2487,7 +2497,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -2536,7 +2546,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -2585,7 +2595,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -2634,7 +2644,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -2683,7 +2693,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -2732,7 +2742,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -2781,7 +2791,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -2830,7 +2840,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -2879,7 +2889,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -2928,7 +2938,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -2977,7 +2987,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -3026,7 +3036,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -3075,7 +3085,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -3124,7 +3134,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -3173,7 +3183,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -3222,7 +3232,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -3271,7 +3281,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -3320,7 +3330,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -3369,7 +3379,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -3418,7 +3428,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -3467,7 +3477,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -3516,7 +3526,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -3565,7 +3575,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -3614,7 +3624,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -3663,7 +3673,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -3712,7 +3722,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -3761,7 +3771,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -3810,7 +3820,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -3859,7 +3869,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -3908,7 +3918,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -3957,7 +3967,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -4006,7 +4016,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -4055,7 +4065,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -4104,7 +4114,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -4153,7 +4163,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -4202,7 +4212,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -4251,7 +4261,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -4300,7 +4310,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -4349,7 +4359,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -4398,7 +4408,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -4447,7 +4457,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -4496,7 +4506,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -4545,7 +4555,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -4594,7 +4604,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -4643,7 +4653,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -4692,7 +4702,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -4741,7 +4751,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -4790,7 +4800,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -4839,7 +4849,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -4888,7 +4898,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -4937,7 +4947,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -4986,7 +4996,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -5035,7 +5045,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -5084,7 +5094,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -5133,7 +5143,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -5182,7 +5192,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -5231,7 +5241,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -5280,7 +5290,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -5329,7 +5339,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -5378,7 +5388,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -5427,7 +5437,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -5476,7 +5486,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -5525,7 +5535,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -5574,7 +5584,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -5623,7 +5633,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -5672,7 +5682,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -5721,7 +5731,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -5770,7 +5780,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -5819,7 +5829,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -5868,7 +5878,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -5917,7 +5927,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -5966,7 +5976,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -6015,7 +6025,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -6064,7 +6074,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -6113,7 +6123,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -6162,7 +6172,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -6211,7 +6221,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -6260,7 +6270,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -6309,7 +6319,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -6358,7 +6368,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -6407,7 +6417,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -6456,7 +6466,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -6505,7 +6515,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -6554,7 +6564,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -6603,7 +6613,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -6652,7 +6662,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -6701,7 +6711,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -6750,7 +6760,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -6799,7 +6809,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -6848,7 +6858,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -6897,7 +6907,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -6946,7 +6956,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -6995,7 +7005,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -7044,7 +7054,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -7093,7 +7103,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -7142,7 +7152,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -7191,7 +7201,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -7240,7 +7250,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -7289,7 +7299,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -7338,7 +7348,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -7387,7 +7397,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -7436,7 +7446,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -7485,7 +7495,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -7534,7 +7544,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -7583,7 +7593,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -7632,7 +7642,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -7681,7 +7691,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -7730,7 +7740,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -7779,7 +7789,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -7828,7 +7838,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -7877,7 +7887,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -7926,7 +7936,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -7975,7 +7985,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -8024,7 +8034,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -8073,7 +8083,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -8122,7 +8132,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -8171,7 +8181,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -8220,7 +8230,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -8269,7 +8279,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -8318,7 +8328,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -8367,7 +8377,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -8416,7 +8426,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -8465,7 +8475,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -8514,7 +8524,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -8563,7 +8573,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -8612,7 +8622,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -8661,7 +8671,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -8710,7 +8720,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -8759,7 +8769,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -8808,7 +8818,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -8857,7 +8867,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -8906,7 +8916,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -8955,7 +8965,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -9004,7 +9014,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -9053,7 +9063,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -9102,7 +9112,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -9151,7 +9161,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -9200,7 +9210,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -9249,7 +9259,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -9298,7 +9308,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -9347,7 +9357,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -9396,7 +9406,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -9445,7 +9455,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -9494,7 +9504,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -9543,7 +9553,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -9592,7 +9602,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -9641,7 +9651,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -9690,7 +9700,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -9739,7 +9749,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -9788,7 +9798,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -9837,7 +9847,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -9886,7 +9896,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -9935,7 +9945,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -9984,7 +9994,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -10033,7 +10043,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -10082,7 +10092,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -10131,7 +10141,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -10180,7 +10190,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -10229,7 +10239,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -10278,7 +10288,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -10327,7 +10337,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -10376,7 +10386,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -10425,7 +10435,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -10474,7 +10484,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -10523,7 +10533,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -10572,7 +10582,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -10621,7 +10631,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -10670,7 +10680,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -10719,7 +10729,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -10768,7 +10778,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -10817,7 +10827,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -10866,7 +10876,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -10915,7 +10925,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -10964,7 +10974,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -11013,7 +11023,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -11062,7 +11072,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -11111,7 +11121,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -11160,7 +11170,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -11209,7 +11219,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -11258,7 +11268,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -11307,7 +11317,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -11356,7 +11366,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -11405,7 +11415,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -11454,7 +11464,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -11503,7 +11513,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -11552,7 +11562,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -11601,7 +11611,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -11650,7 +11660,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -11699,7 +11709,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -11748,7 +11758,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -11797,7 +11807,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -11846,7 +11856,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -11895,7 +11905,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -11944,7 +11954,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -11993,7 +12003,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -12042,7 +12052,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -12091,7 +12101,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -12140,7 +12150,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -12189,7 +12199,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -12238,7 +12248,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -12287,7 +12297,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -12336,7 +12346,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -12385,7 +12395,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -12434,7 +12444,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -12483,7 +12493,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -12532,7 +12542,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -12581,7 +12591,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -12630,7 +12640,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -12679,7 +12689,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -12728,7 +12738,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -12777,7 +12787,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -12826,7 +12836,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -12875,7 +12885,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -12924,7 +12934,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -12973,7 +12983,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -13022,7 +13032,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -13071,7 +13081,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -13120,7 +13130,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -13169,7 +13179,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -13218,7 +13228,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -13267,7 +13277,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -13316,7 +13326,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -13365,7 +13375,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -13414,7 +13424,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -13463,7 +13473,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -13512,7 +13522,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -13561,7 +13571,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -13610,7 +13620,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -13659,7 +13669,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -13708,7 +13718,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -13757,7 +13767,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -13806,7 +13816,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -13855,7 +13865,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -13904,7 +13914,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -13953,7 +13963,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -14002,7 +14012,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -14051,7 +14061,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -14100,7 +14110,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -14149,7 +14159,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -14198,7 +14208,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -14247,7 +14257,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -14296,7 +14306,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -14345,7 +14355,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -14394,7 +14404,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -14443,7 +14453,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -14492,7 +14502,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -14541,7 +14551,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -14590,7 +14600,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -14639,7 +14649,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -14688,7 +14698,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -14737,7 +14747,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -14786,7 +14796,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -14835,7 +14845,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -14884,7 +14894,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -14933,7 +14943,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -14982,7 +14992,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -15031,7 +15041,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -15080,7 +15090,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -15129,7 +15139,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -15178,7 +15188,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -15227,7 +15237,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -15276,7 +15286,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -15325,7 +15335,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -15374,7 +15384,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -15423,7 +15433,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -15472,7 +15482,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -15521,7 +15531,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -15570,7 +15580,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -15619,7 +15629,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -15668,7 +15678,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -15717,7 +15727,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -15766,7 +15776,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -15815,7 +15825,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -15864,7 +15874,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -15913,7 +15923,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -15962,7 +15972,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -16011,7 +16021,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -16060,7 +16070,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -16109,7 +16119,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -16158,7 +16168,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -16207,7 +16217,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -16256,7 +16266,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -16305,7 +16315,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -16354,7 +16364,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -16403,7 +16413,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -16452,7 +16462,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -16501,7 +16511,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -16550,7 +16560,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -16599,7 +16609,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -16648,7 +16658,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -16697,7 +16707,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -16746,7 +16756,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -16795,7 +16805,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -16844,7 +16854,7 @@
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -16893,7 +16903,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -16942,7 +16952,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -16991,7 +17001,7 @@
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -17040,7 +17050,7 @@
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -17089,7 +17099,7 @@
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -17138,7 +17148,7 @@
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -17187,7 +17197,7 @@
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -17236,7 +17246,7 @@
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -17285,7 +17295,7 @@
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -17334,7 +17344,7 @@
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -17383,7 +17393,7 @@
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -17432,7 +17442,7 @@
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -17481,7 +17491,7 @@
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -17530,7 +17540,7 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -17579,7 +17589,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -17628,7 +17638,7 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -17677,7 +17687,7 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -17726,7 +17736,7 @@
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -17775,7 +17785,7 @@
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -17824,7 +17834,7 @@
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -17873,7 +17883,7 @@
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -17922,7 +17932,7 @@
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -17971,7 +17981,7 @@
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -18020,7 +18030,7 @@
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -18069,7 +18079,7 @@
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -18118,7 +18128,7 @@
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -18167,7 +18177,7 @@
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -18216,7 +18226,7 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -18265,7 +18275,7 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -18314,7 +18324,7 @@
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -18363,7 +18373,7 @@
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -18412,7 +18422,7 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -18461,7 +18471,7 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -18510,7 +18520,7 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -18559,7 +18569,7 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -18608,7 +18618,7 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -18657,7 +18667,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -18706,7 +18716,7 @@
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -18755,7 +18765,7 @@
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -18804,7 +18814,7 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -18853,7 +18863,7 @@
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -18902,7 +18912,7 @@
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -18951,7 +18961,7 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -19000,7 +19010,7 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -19049,7 +19059,7 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -19098,7 +19108,7 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -19147,7 +19157,7 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -19196,7 +19206,7 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -19245,7 +19255,7 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -19294,7 +19304,7 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -19343,7 +19353,7 @@
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -19392,7 +19402,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -19441,7 +19451,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -19490,7 +19500,7 @@
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -19539,7 +19549,7 @@
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -19588,7 +19598,7 @@
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -19637,7 +19647,7 @@
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -19686,7 +19696,7 @@
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -19735,7 +19745,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -19784,7 +19794,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -19833,7 +19843,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -19882,7 +19892,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -19931,7 +19941,7 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -19980,7 +19990,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -20029,7 +20039,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -20078,7 +20088,7 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -20127,7 +20137,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -20176,7 +20186,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -20225,7 +20235,7 @@
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -20274,7 +20284,7 @@
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -20323,7 +20333,7 @@
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -20372,7 +20382,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -20421,7 +20431,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -20470,7 +20480,7 @@
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -20519,7 +20529,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -20568,7 +20578,7 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -20617,7 +20627,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -20666,7 +20676,7 @@
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -20715,7 +20725,7 @@
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -20764,7 +20774,7 @@
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -20813,7 +20823,7 @@
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -20862,7 +20872,7 @@
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -20911,7 +20921,7 @@
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -20960,7 +20970,7 @@
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -21009,7 +21019,7 @@
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -21058,7 +21068,7 @@
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -21107,7 +21117,7 @@
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -21156,7 +21166,7 @@
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -21205,7 +21215,7 @@
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -21254,7 +21264,7 @@
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -21303,7 +21313,7 @@
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -21352,7 +21362,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -21401,7 +21411,7 @@
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -21450,7 +21460,7 @@
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -21499,7 +21509,7 @@
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -21548,7 +21558,7 @@
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -21597,7 +21607,7 @@
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -21646,7 +21656,7 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -21695,7 +21705,7 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -21744,7 +21754,7 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -21793,7 +21803,7 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -21842,7 +21852,7 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -21891,7 +21901,7 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -21940,7 +21950,7 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -21989,7 +21999,7 @@
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -22038,7 +22048,7 @@
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -22087,7 +22097,7 @@
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -22136,7 +22146,7 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -22185,7 +22195,7 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -22234,7 +22244,7 @@
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -22283,7 +22293,7 @@
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -22332,7 +22342,7 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -22381,7 +22391,7 @@
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -22430,7 +22440,7 @@
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -22479,7 +22489,7 @@
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -22528,7 +22538,7 @@
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -22577,7 +22587,7 @@
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -22626,7 +22636,7 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -22675,7 +22685,7 @@
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -22724,7 +22734,7 @@
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -22773,7 +22783,7 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -22822,7 +22832,7 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -22871,7 +22881,7 @@
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -22920,7 +22930,7 @@
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -22969,7 +22979,7 @@
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -23018,7 +23028,7 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -23067,7 +23077,7 @@
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -23116,7 +23126,7 @@
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -23165,7 +23175,7 @@
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -23214,7 +23224,7 @@
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -23263,7 +23273,7 @@
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -23312,7 +23322,7 @@
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -23361,7 +23371,7 @@
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -23410,7 +23420,7 @@
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -23459,7 +23469,7 @@
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -23508,7 +23518,7 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -23557,7 +23567,7 @@
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -23606,7 +23616,7 @@
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -23655,7 +23665,7 @@
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -23704,7 +23714,7 @@
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -23753,7 +23763,7 @@
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -23802,7 +23812,7 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -23851,7 +23861,7 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -23900,7 +23910,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -23949,7 +23959,7 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -23998,7 +24008,7 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -24047,7 +24057,7 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -24096,7 +24106,7 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -24145,7 +24155,7 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -24194,7 +24204,7 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -24243,7 +24253,7 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -24292,7 +24302,7 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -24341,7 +24351,7 @@
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -24390,7 +24400,7 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -24439,7 +24449,7 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -24488,7 +24498,7 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -24537,7 +24547,7 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -24586,7 +24596,7 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -24635,7 +24645,7 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -24684,7 +24694,7 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -24733,7 +24743,7 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -24782,7 +24792,7 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -24831,7 +24841,7 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -24880,7 +24890,7 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -24929,7 +24939,7 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -24978,7 +24988,7 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -25027,7 +25037,7 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -25076,7 +25086,7 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -25125,7 +25135,7 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -25174,7 +25184,7 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -25223,7 +25233,7 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -25272,7 +25282,7 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -25321,7 +25331,7 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -25370,7 +25380,7 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -25419,7 +25429,7 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -25468,7 +25478,7 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -25517,7 +25527,7 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -25566,7 +25576,7 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -25615,7 +25625,7 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -25664,7 +25674,7 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>
